--- a/DataWarehouse2020/local/test/sinhvien_chieu_nhom16.xlsx
+++ b/DataWarehouse2020/local/test/sinhvien_chieu_nhom16.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_HK2_3\DataWarehouse\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="4020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -128,51 +124,6 @@
     <t>Công nghệ sinh học</t>
   </si>
   <si>
-    <t>DH17DD( BQ chế biến NSTP và dinh dưỡng người)</t>
-  </si>
-  <si>
-    <t>DH17DTA( Công nghệ thông tin A)</t>
-  </si>
-  <si>
-    <t>DH17DTB( Công nghệ thông tin b)</t>
-  </si>
-  <si>
-    <t>DH17DTC( Công nghệ thông tin C)</t>
-  </si>
-  <si>
-    <t>DH17QM( Quản lý môi trường)</t>
-  </si>
-  <si>
-    <t>DH17CD( Công nghệ kỹ thuật cơ điện tử)</t>
-  </si>
-  <si>
-    <t>DH18DY( Dược thú y)</t>
-  </si>
-  <si>
-    <t>DH18CB( Công nghệ chế biến lâm sản)</t>
-  </si>
-  <si>
-    <t>DH18TM( Quản trị kinh doanh thương mại)</t>
-  </si>
-  <si>
-    <t>DH18QT( Quản trị kinh doanh (tổng hợp))</t>
-  </si>
-  <si>
-    <t>DH18SHA( Công nghệ sinh học A)</t>
-  </si>
-  <si>
-    <t>DH18DTC( Công nghệ thông tin C)</t>
-  </si>
-  <si>
-    <t>DH18DTB( Công nghệ thông tin B)</t>
-  </si>
-  <si>
-    <t>DH18TD( Kỹ thuật điều khiển và tự động hóa)</t>
-  </si>
-  <si>
-    <t>DH18CD( Công nghệ kỹ thuật cơ điện tử)</t>
-  </si>
-  <si>
     <t>Huỳnh Thị Bé</t>
   </si>
   <si>
@@ -243,6 +194,51 @@
   </si>
   <si>
     <t>Phạm Thanh Quel</t>
+  </si>
+  <si>
+    <t>DH17DD</t>
+  </si>
+  <si>
+    <t>DH18CD</t>
+  </si>
+  <si>
+    <t>DH18TD</t>
+  </si>
+  <si>
+    <t>DH18DT</t>
+  </si>
+  <si>
+    <t>DH18DTC</t>
+  </si>
+  <si>
+    <t>DH18SHA</t>
+  </si>
+  <si>
+    <t>DH18QT</t>
+  </si>
+  <si>
+    <t>DH18TM</t>
+  </si>
+  <si>
+    <t>DH18CB</t>
+  </si>
+  <si>
+    <t>DH18DY</t>
+  </si>
+  <si>
+    <t>DH17CD</t>
+  </si>
+  <si>
+    <t>DH17QM</t>
+  </si>
+  <si>
+    <t>DH17DTC</t>
+  </si>
+  <si>
+    <t>DH17DTB</t>
+  </si>
+  <si>
+    <t>DH17DTA</t>
   </si>
 </sst>
 </file>
@@ -1312,22 +1308,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" customWidth="1"/>
+    <col min="7" max="7" width="26.5546875" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="31.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1384,7 +1380,7 @@
         <v>36205</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>27</v>
@@ -1400,7 +1396,7 @@
         <v>13</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1422,7 +1418,7 @@
         <v>36206</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>27</v>
@@ -1438,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1460,7 +1456,7 @@
         <v>36207</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -1476,7 +1472,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1498,7 +1494,7 @@
         <v>36208</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -1514,7 +1510,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1536,7 +1532,7 @@
         <v>36209</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
@@ -1552,7 +1548,7 @@
         <v>12</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1574,7 +1570,7 @@
         <v>36210</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
@@ -1590,7 +1586,7 @@
         <v>20</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1612,7 +1608,7 @@
         <v>36211</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
@@ -1628,7 +1624,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1650,7 +1646,7 @@
         <v>36212</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
@@ -1666,7 +1662,7 @@
         <v>16</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1688,7 +1684,7 @@
         <v>36221</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
@@ -1704,7 +1700,7 @@
         <v>22</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1726,7 +1722,7 @@
         <v>36399</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>28</v>
@@ -1742,7 +1738,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1764,7 +1760,7 @@
         <v>36313</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>29</v>
@@ -1780,7 +1776,7 @@
         <v>23</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1802,7 +1798,7 @@
         <v>35960</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>30</v>
@@ -1818,7 +1814,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1840,7 +1836,7 @@
         <v>36173</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>31</v>
@@ -1856,7 +1852,7 @@
         <v>23</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1878,7 +1874,7 @@
         <v>36017</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>32</v>
@@ -1894,7 +1890,7 @@
         <v>21</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1916,7 +1912,7 @@
         <v>36214</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>32</v>
@@ -1932,7 +1928,7 @@
         <v>24</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1954,7 +1950,7 @@
         <v>43071</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>33</v>
@@ -1970,7 +1966,7 @@
         <v>13</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1992,7 +1988,7 @@
         <v>35779</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
@@ -2008,7 +2004,7 @@
         <v>25</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2030,7 +2026,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>11</v>
@@ -2046,7 +2042,7 @@
         <v>26</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2068,7 +2064,7 @@
         <v>36051</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>29</v>
@@ -2084,7 +2080,7 @@
         <v>23</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2106,7 +2102,7 @@
         <v>35735</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>29</v>
@@ -2122,7 +2118,7 @@
         <v>16</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2144,7 +2140,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>29</v>
@@ -2160,7 +2156,7 @@
         <v>12</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2182,7 +2178,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>29</v>
@@ -2198,7 +2194,7 @@
         <v>16</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2220,7 +2216,7 @@
         <v>35894</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>29</v>
@@ -2236,7 +2232,7 @@
         <v>23</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2258,7 +2254,7 @@
         <v>35452</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>29</v>
@@ -2274,7 +2270,7 @@
         <v>19</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:11">
